--- a/Results/RQ1/overall_performance.xlsx
+++ b/Results/RQ1/overall_performance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDF3E22-FB42-47EE-B14B-FBE414C0FABB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCAF12C-D154-416C-9A71-B93A6634C37C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="960" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,10 +223,10 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -559,7 +559,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -592,7 +592,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -623,7 +623,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
@@ -661,7 +661,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -694,7 +694,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
@@ -725,7 +725,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -763,7 +763,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -796,7 +796,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
@@ -827,7 +827,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
@@ -865,7 +865,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -898,7 +898,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
@@ -929,7 +929,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
@@ -967,7 +967,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1000,7 +1000,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
@@ -1031,7 +1031,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
@@ -1069,7 +1069,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1102,7 +1102,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1133,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1171,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1204,7 +1204,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
@@ -1235,7 +1235,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="6" t="s">
         <v>9</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -1378,7 +1378,7 @@
       <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="8" t="s">
         <v>8</v>
       </c>
@@ -1413,7 +1413,7 @@
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -1485,7 +1485,7 @@
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="8" t="s">
         <v>8</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="8" t="s">
         <v>9</v>
       </c>
@@ -1555,7 +1555,7 @@
       <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -1592,7 +1592,7 @@
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="8" t="s">
         <v>8</v>
       </c>
@@ -1627,7 +1627,7 @@
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="8" t="s">
         <v>9</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -1699,7 +1699,7 @@
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="8" t="s">
         <v>8</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="8" t="s">
         <v>9</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -1806,7 +1806,7 @@
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="8" t="s">
         <v>8</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="J41" s="8"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="8" t="s">
         <v>9</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="J42" s="8"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -1913,7 +1913,7 @@
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="8" t="s">
         <v>8</v>
       </c>
@@ -1948,7 +1948,7 @@
       <c r="J44" s="8"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="8" t="s">
         <v>9</v>
       </c>
@@ -1983,7 +1983,7 @@
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -2020,7 +2020,7 @@
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="8" t="s">
         <v>8</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="8" t="s">
         <v>9</v>
       </c>
@@ -2091,11 +2091,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A34:A36"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -2105,6 +2100,11 @@
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A34:A36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
